--- a/testData/passwd_envelope_test_data.xlsx
+++ b/testData/passwd_envelope_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="add_passwd_envelope" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="mode_passwd_envelope" sheetId="9" r:id="rId4"/>
     <sheet name="check_passwd_envelope" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -84,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\testIsomp\testData\envelope_image.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>同步图片</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -198,8 +194,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>E:\testIsomp\testData\envelope_image.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
   </si>
 </sst>
 </file>
@@ -689,22 +688,22 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -741,10 +740,10 @@
         <v>46</v>
       </c>
       <c r="E2" s="8">
-        <v>8890</v>
+        <v>7990</v>
       </c>
       <c r="F2" s="8">
-        <v>8990</v>
+        <v>7890</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -760,13 +759,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="zlj@fort.cn"/>
-    <hyperlink ref="E2" r:id="rId2" display="Admin@123"/>
-    <hyperlink ref="F2" r:id="rId3" display="Admin@123"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -774,22 +768,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -814,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>15</v>
@@ -835,11 +829,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -855,13 +849,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +872,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -906,7 +900,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -918,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -938,15 +932,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1">
@@ -974,59 +968,59 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="12"/>
@@ -1035,53 +1029,53 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="14">
         <v>8990</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1089,10 +1083,10 @@
         <v>8890</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
